--- a/SILABO_2015B_ASI_TSI223 Arquitectura De Computadores II_Salvador Edwin.xlsx
+++ b/SILABO_2015B_ASI_TSI223 Arquitectura De Computadores II_Salvador Edwin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m o n o\Google Drive\ESFOT\2015-A\ASI_TSI223 Arquitectura de Computadores II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\ESFOT\2015-B\ASI_TSI223 Arquitectura de Computadores II\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
   <si>
     <t xml:space="preserve">ESCUELA POLITÉCNICA NACIONAL </t>
   </si>
@@ -365,9 +365,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Investigación</t>
-  </si>
-  <si>
     <t>Listas de preguntas sobre el tema tratado en clase para reforzar el aprendizaje.</t>
   </si>
   <si>
@@ -375,12 +372,6 @@
   </si>
   <si>
     <t>Evaluaciones sobre los temas tratados en clase.</t>
-  </si>
-  <si>
-    <t>Participación en clase</t>
-  </si>
-  <si>
-    <t>Abril/2015 - Julio/2015</t>
   </si>
   <si>
     <t xml:space="preserve">1. Introducción
@@ -422,9 +413,6 @@
 2.  Guy Hart-Davis (2010), Actualice su PC: hágalo usted mismo, McGraw-Hill Interamericana</t>
   </si>
   <si>
-    <t>Pruebas bimestrales</t>
-  </si>
-  <si>
     <t>Temas de consulta sobre los temas tratados</t>
   </si>
   <si>
@@ -512,9 +500,6 @@
 a. Arranque
 b. Herramienta
 PRUEBA PARCIAL</t>
-  </si>
-  <si>
-    <t>ESFOT aula 27 lunes de 9 a.m. a 12 p.m.</t>
   </si>
   <si>
     <t>1. Prácticas de reconocimiento de componentes
@@ -527,6 +512,18 @@
 Asistencia puntual a clases
 Respeto a la institución al profesor y a los compañeros
 Dedicación y esfuerzo como base en la formación profesional</t>
+  </si>
+  <si>
+    <t>Participación (Peerwise)</t>
+  </si>
+  <si>
+    <t>Deberes y Consultas</t>
+  </si>
+  <si>
+    <t>Septiembre/2015 - Febrero/2015</t>
+  </si>
+  <si>
+    <t>ESFOT aula 26 viernes de 7 a.m. a 10 a.m.</t>
   </si>
 </sst>
 </file>
@@ -1228,6 +1225,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,15 +1261,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1282,59 +1279,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1725,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118:F118"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,33 +1794,33 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="84" t="s">
@@ -1842,17 +1839,17 @@
       <c r="A10" s="20"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="84" t="s">
@@ -1871,17 +1868,17 @@
       <c r="A13" s="20"/>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="72"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="84" t="s">
@@ -1908,21 +1905,21 @@
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="84" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -1937,33 +1934,33 @@
       <c r="A19" s="20"/>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="84" t="s">
@@ -1982,17 +1979,17 @@
       <c r="A24" s="20"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="93" t="s">
@@ -2011,17 +2008,17 @@
       <c r="A27" s="20"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="84" t="s">
@@ -2040,33 +2037,33 @@
       <c r="A30" s="20"/>
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="78"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="72"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="84" t="s">
@@ -2085,17 +2082,17 @@
       <c r="A35" s="20"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="72"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="70"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="84">
@@ -2114,17 +2111,17 @@
       <c r="A38" s="20"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="72"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="84" t="s">
@@ -2143,17 +2140,17 @@
       <c r="A41" s="20"/>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="72"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="70"/>
     </row>
     <row r="43" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
@@ -2177,17 +2174,17 @@
       <c r="A44" s="20"/>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="72"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="70"/>
     </row>
     <row r="46" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
@@ -2282,17 +2279,17 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="72"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="70"/>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90" t="s">
@@ -2319,17 +2316,17 @@
       <c r="I56"/>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="72"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="84"/>
@@ -2346,104 +2343,104 @@
       <c r="A59" s="20"/>
     </row>
     <row r="60" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="78"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="76"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
     </row>
     <row r="62" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="81" t="s">
+      <c r="A62" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="82"/>
-      <c r="C62" s="81" t="s">
+      <c r="B62" s="80"/>
+      <c r="C62" s="79" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="87"/>
       <c r="E62" s="87"/>
       <c r="F62" s="87"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="81" t="s">
+      <c r="G62" s="80"/>
+      <c r="H62" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I62" s="82"/>
+      <c r="I62" s="80"/>
     </row>
     <row r="63" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="79" t="s">
+      <c r="B63" s="82"/>
+      <c r="C63" s="77" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="88"/>
       <c r="E63" s="88"/>
       <c r="F63" s="88"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="79" t="s">
+      <c r="G63" s="78"/>
+      <c r="H63" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="I63" s="80"/>
+      <c r="I63" s="78"/>
     </row>
     <row r="64" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="66"/>
-      <c r="C64" s="79" t="s">
+      <c r="B64" s="82"/>
+      <c r="C64" s="77" t="s">
         <v>69</v>
       </c>
       <c r="D64" s="88"/>
       <c r="E64" s="88"/>
       <c r="F64" s="88"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="79" t="s">
+      <c r="G64" s="78"/>
+      <c r="H64" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="I64" s="80"/>
+      <c r="I64" s="78"/>
     </row>
     <row r="65" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="79" t="s">
+      <c r="B65" s="82"/>
+      <c r="C65" s="77" t="s">
         <v>70</v>
       </c>
       <c r="D65" s="88"/>
       <c r="E65" s="88"/>
       <c r="F65" s="88"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="79" t="s">
+      <c r="G65" s="78"/>
+      <c r="H65" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="80"/>
+      <c r="I65" s="78"/>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
     </row>
     <row r="67" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="78"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="76"/>
     </row>
     <row r="68" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20"/>
@@ -2457,66 +2454,66 @@
       <c r="I68"/>
     </row>
     <row r="69" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="72"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="70"/>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
     </row>
     <row r="71" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="69"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="67"/>
     </row>
     <row r="72" spans="1:9" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="75"/>
+      <c r="A72" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="20"/>
     </row>
     <row r="74" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="72"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="70"/>
     </row>
     <row r="75" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="59" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
@@ -2531,21 +2528,21 @@
       <c r="A76" s="20"/>
     </row>
     <row r="77" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="72"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="70"/>
     </row>
     <row r="78" spans="1:9" s="4" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
@@ -2560,21 +2557,21 @@
       <c r="A79" s="20"/>
     </row>
     <row r="80" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="72"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="70"/>
     </row>
     <row r="81" spans="1:9" s="4" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B81" s="63"/>
       <c r="C81" s="63"/>
@@ -2589,17 +2586,17 @@
       <c r="A82" s="20"/>
     </row>
     <row r="83" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
     </row>
     <row r="84" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
@@ -2618,17 +2615,17 @@
       <c r="A85" s="20"/>
     </row>
     <row r="86" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
     </row>
     <row r="87" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
@@ -2645,14 +2642,14 @@
       <c r="A88" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
       <c r="H88" s="21" t="s">
         <v>12</v>
       </c>
@@ -2662,54 +2659,54 @@
     </row>
     <row r="89" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="54"/>
+        <v>131</v>
+      </c>
+      <c r="B89" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="22">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I89" s="22">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B90" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="54"/>
+      <c r="B90" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I90" s="22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B91" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="54"/>
+        <v>124</v>
+      </c>
+      <c r="B91" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="57"/>
       <c r="H91" s="22">
         <v>0.4</v>
       </c>
@@ -2719,33 +2716,33 @@
     </row>
     <row r="92" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="54"/>
+        <v>130</v>
+      </c>
+      <c r="B92" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="57"/>
       <c r="H92" s="22">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I92" s="22">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="52"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="54"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="57"/>
       <c r="H93" s="22">
         <v>1</v>
       </c>
@@ -2754,10 +2751,10 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="47"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
@@ -2770,17 +2767,17 @@
       <c r="A95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="55"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="58"/>
     </row>
     <row r="97" spans="1:9" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="35" t="s">
@@ -2799,17 +2796,17 @@
       <c r="A98" s="20"/>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="55" t="s">
+      <c r="A99" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="55"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
@@ -2821,342 +2818,342 @@
       <c r="B101" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="48" t="s">
+      <c r="C101" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48" t="s">
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
     </row>
     <row r="102" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
         <v>1</v>
       </c>
       <c r="B102" s="26">
-        <v>42100</v>
-      </c>
-      <c r="C102" s="49" t="s">
+        <v>42279</v>
+      </c>
+      <c r="C102" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="54"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="57"/>
     </row>
     <row r="103" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27">
         <v>2</v>
       </c>
       <c r="B103" s="28">
-        <v>42107</v>
+        <v>42293</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="31"/>
-      <c r="G103" s="52" t="s">
+      <c r="G103" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H103" s="53"/>
-      <c r="I103" s="54"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="57"/>
     </row>
     <row r="104" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25">
         <v>3</v>
       </c>
       <c r="B104" s="26">
-        <v>42114</v>
+        <v>42300</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="33"/>
       <c r="F104" s="34"/>
-      <c r="G104" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H104" s="53"/>
-      <c r="I104" s="54"/>
+      <c r="G104" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="H104" s="56"/>
+      <c r="I104" s="57"/>
     </row>
     <row r="105" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27">
         <v>4</v>
       </c>
       <c r="B105" s="28">
-        <v>42121</v>
+        <v>42307</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30"/>
       <c r="F105" s="31"/>
-      <c r="G105" s="52" t="s">
+      <c r="G105" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H105" s="53"/>
-      <c r="I105" s="54"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="57"/>
     </row>
     <row r="106" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25">
         <v>5</v>
       </c>
       <c r="B106" s="26">
-        <v>42128</v>
+        <v>42314</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D106" s="33"/>
       <c r="E106" s="33"/>
       <c r="F106" s="34"/>
-      <c r="G106" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H106" s="53"/>
-      <c r="I106" s="54"/>
+      <c r="G106" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="H106" s="56"/>
+      <c r="I106" s="57"/>
     </row>
     <row r="107" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27">
         <v>6</v>
       </c>
       <c r="B107" s="28">
-        <v>42135</v>
+        <v>42321</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30"/>
       <c r="F107" s="31"/>
-      <c r="G107" s="52" t="s">
+      <c r="G107" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H107" s="53"/>
-      <c r="I107" s="54"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="57"/>
     </row>
     <row r="108" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
         <v>7</v>
       </c>
       <c r="B108" s="26">
-        <v>42142</v>
+        <v>42328</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
       <c r="F108" s="34"/>
-      <c r="G108" s="52" t="s">
+      <c r="G108" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="H108" s="53"/>
-      <c r="I108" s="54"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="57"/>
     </row>
     <row r="109" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27">
         <v>8</v>
       </c>
       <c r="B109" s="28">
-        <v>42149</v>
+        <v>42335</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="30"/>
       <c r="F109" s="31"/>
-      <c r="G109" s="52" t="s">
+      <c r="G109" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H109" s="53"/>
-      <c r="I109" s="54"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="57"/>
     </row>
     <row r="110" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
         <v>9</v>
       </c>
       <c r="B110" s="26">
-        <v>42156</v>
+        <v>42342</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D110" s="33"/>
       <c r="E110" s="33"/>
       <c r="F110" s="34"/>
-      <c r="G110" s="52" t="s">
+      <c r="G110" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H110" s="53"/>
-      <c r="I110" s="54"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="57"/>
     </row>
     <row r="111" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27">
         <v>10</v>
       </c>
       <c r="B111" s="28">
-        <v>42163</v>
+        <v>42349</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30"/>
       <c r="F111" s="31"/>
-      <c r="G111" s="52" t="s">
+      <c r="G111" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="H111" s="53"/>
-      <c r="I111" s="54"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="57"/>
     </row>
     <row r="112" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <v>11</v>
       </c>
       <c r="B112" s="26">
-        <v>42170</v>
+        <v>42356</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D112" s="33"/>
       <c r="E112" s="33"/>
       <c r="F112" s="34"/>
-      <c r="G112" s="52" t="s">
+      <c r="G112" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H112" s="53"/>
-      <c r="I112" s="54"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="57"/>
     </row>
     <row r="113" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27">
         <v>12</v>
       </c>
       <c r="B113" s="28">
-        <v>42177</v>
+        <v>42377</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D113" s="30"/>
       <c r="E113" s="30"/>
       <c r="F113" s="31"/>
-      <c r="G113" s="52" t="s">
+      <c r="G113" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H113" s="53"/>
-      <c r="I113" s="54"/>
+      <c r="H113" s="56"/>
+      <c r="I113" s="57"/>
     </row>
     <row r="114" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <v>13</v>
       </c>
       <c r="B114" s="26">
-        <v>42184</v>
+        <v>42384</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D114" s="33"/>
       <c r="E114" s="33"/>
       <c r="F114" s="34"/>
-      <c r="G114" s="52" t="s">
+      <c r="G114" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H114" s="53"/>
-      <c r="I114" s="54"/>
+      <c r="H114" s="56"/>
+      <c r="I114" s="57"/>
     </row>
     <row r="115" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27">
         <v>14</v>
       </c>
       <c r="B115" s="28">
-        <v>42191</v>
+        <v>42391</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30"/>
       <c r="F115" s="31"/>
-      <c r="G115" s="52" t="s">
+      <c r="G115" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H115" s="53"/>
-      <c r="I115" s="54"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="57"/>
     </row>
     <row r="116" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25">
         <v>15</v>
       </c>
       <c r="B116" s="26">
-        <v>42198</v>
+        <v>42398</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D116" s="33"/>
       <c r="E116" s="33"/>
       <c r="F116" s="34"/>
-      <c r="G116" s="52" t="s">
+      <c r="G116" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="H116" s="53"/>
-      <c r="I116" s="54"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="57"/>
     </row>
     <row r="117" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27">
         <v>16</v>
       </c>
       <c r="B117" s="28">
-        <v>42205</v>
+        <v>42405</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30"/>
       <c r="F117" s="31"/>
-      <c r="G117" s="52" t="s">
+      <c r="G117" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="H117" s="53"/>
-      <c r="I117" s="54"/>
+      <c r="H117" s="56"/>
+      <c r="I117" s="57"/>
     </row>
     <row r="118" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25">
         <v>17</v>
       </c>
       <c r="B118" s="26">
-        <v>42212</v>
+        <v>42412</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
       <c r="F118" s="34"/>
-      <c r="G118" s="52"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="54"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="56"/>
+      <c r="I118" s="57"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="47"/>
+      <c r="B119" s="50"/>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
@@ -3182,17 +3179,17 @@
       <c r="I121" s="40"/>
     </row>
     <row r="122" spans="1:9" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B122" s="57"/>
-      <c r="C122" s="57"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="57"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="58"/>
+      <c r="A122" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="49"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
@@ -3212,7 +3209,7 @@
     </row>
     <row r="125" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
